--- a/spreadsheets/UseCase_HingeCustomizedComponents.xlsx
+++ b/spreadsheets/UseCase_HingeCustomizedComponents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATI\STIIMA-ITIA\PROGETTI\ErasmusPlus_VLFT\DEVS_VLFT\Usecase\Cosberg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\difactory\repository\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34DC8CC-80FF-4A3B-B3AF-4DE485968F81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF79488F-478D-447D-B839-476D5E75FA1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="8895" tabRatio="484" xr2:uid="{F487811F-0527-4F45-AB48-04B8DCD52C96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="8895" tabRatio="484" activeTab="1" xr2:uid="{F487811F-0527-4F45-AB48-04B8DCD52C96}"/>
   </bookViews>
   <sheets>
     <sheet name="Context" sheetId="16" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>Hinge</t>
   </si>
   <si>
-    <t>http://www.ontoeng.com/factory#Artifact</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>Hinge.glb#WingScrew</t>
+  </si>
+  <si>
+    <t>https://w3id.org/ontoeng/factory#Artifact</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8466CCB2-1EC2-4D46-B8B6-6A373A69743B}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B1" s="14" t="str">
         <f>CONCATENATE(Context!D1,B3,Context!E1,B4,Context!F1,B5,"""},",Context!G1,Assets!AU201,Context!H1,Assets!AV201,"]}")</f>
-        <v>{"context": { "UnitOfMeasureScale": 0.001,"Zup": false, "RepoPath": ""},"scene": ["Hinge","Hinge.Box","Hinge.Clip","Hinge.Connector1","Hinge.Connector2","Hinge.Hook","Hinge.Pin1-1","Hinge.Pin1-2","Hinge.Pin1-3","Hinge.Spring","Hinge.Wing","Hinge.WingScrew"], "assets": [{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}]}</v>
+        <v>{"context": { "UnitOfMeasureScale": 0.001,"Zup": false, "RepoPath": ""},"scene": ["Hinge","Hinge.Box","Hinge.Clip","Hinge.Connector1","Hinge.Connector2","Hinge.Hook","Hinge.Pin1-1","Hinge.Pin1-2","Hinge.Pin1-3","Hinge.Spring","Hinge.Wing","Hinge.WingScrew"], "assets": [{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}]}</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1158,12 +1158,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBE1175-FFEC-4699-8890-6AAD58990405}">
   <dimension ref="A1:AX201"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:A54"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:A54"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:A54"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1267,67 +1267,67 @@
         <v>21</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AM1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AN1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AO1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AP1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AQ1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AR1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AS1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AT1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AU1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AV1" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1339,11 +1339,11 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="44">
         <v>1</v>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="AD2" s="42" t="str">
         <f>IF(D2&lt;&gt;"",CONCATENATE(", """,D$1,""": """,D2,""""),"")</f>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE2" s="42" t="str">
         <f>IF(E2&lt;&gt;"",CONCATENATE(", """,E$1,""": """,E2,""""),"")</f>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="AT2" s="42" t="str">
         <f>CONCATENATE(AB2,AC2,AD2,AE2,AF2,AG2,AH2,AI2,AJ2,AK2,AL2,AM2,AN2,AO2,AP2,AQ2,AR2,AS2)</f>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
       </c>
       <c r="AU2" s="11" t="str">
         <f>IF(B2=1,CONCATENATE(IF(AU1&lt;&gt;"",CONCATENATE(AU1,","),""),"""",A2,""""),AU1)</f>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AV2" s="6" t="str">
         <f>IF(A2&lt;&gt;"",CONCATENATE(IF(AV1&lt;&gt;"",CONCATENATE(AV1,","),""),AT2),AV1)</f>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
       </c>
       <c r="AW2" s="7" t="s">
         <v>1</v>
@@ -1466,18 +1466,18 @@
     </row>
     <row r="3" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="44">
         <v>1</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="AD3" s="42" t="str">
         <f t="shared" ref="AD3:AD66" si="2">IF(D3&lt;&gt;"",CONCATENATE(", """,D$1,""": """,D3,""""),"")</f>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE3" s="42" t="str">
         <f t="shared" ref="AE3:AE66" si="3">IF(E3&lt;&gt;"",CONCATENATE(", """,E$1,""": """,E3,""""),"")</f>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="AT3" s="42" t="str">
         <f t="shared" ref="AT3:AT66" si="17">CONCATENATE(AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3,AO3,AP3,AQ3,AR3,AS3)</f>
-        <v>{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AU3" s="11" t="str">
         <f t="shared" ref="AU3:AU66" si="18">IF(B3=1,CONCATENATE(IF(AU2&lt;&gt;"",CONCATENATE(AU2,","),""),"""",A3,""""),AU2)</f>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="AV3" s="6" t="str">
         <f t="shared" ref="AV3:AV66" si="19">IF(A3&lt;&gt;"",CONCATENATE(IF(AV2&lt;&gt;"",CONCATENATE(AV2,","),""),AT3),AV2)</f>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW3" s="7" t="s">
         <v>1</v>
@@ -1604,18 +1604,18 @@
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="44">
         <v>1</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="AD4" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE4" s="42" t="str">
         <f t="shared" si="3"/>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="AT4" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AU4" s="11" t="str">
         <f t="shared" si="18"/>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="AV4" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW4" s="7" t="s">
         <v>1</v>
@@ -1742,18 +1742,18 @@
     </row>
     <row r="5" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="44">
         <v>1</v>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="AD5" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE5" s="42" t="str">
         <f t="shared" si="3"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AT5" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AU5" s="11" t="str">
         <f t="shared" si="18"/>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="AV5" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW5" s="7" t="s">
         <v>1</v>
@@ -1880,18 +1880,18 @@
     </row>
     <row r="6" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="44">
         <v>1</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="AD6" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE6" s="42" t="str">
         <f t="shared" si="3"/>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="AT6" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AU6" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="AV6" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW6" s="7" t="s">
         <v>1</v>
@@ -2018,18 +2018,18 @@
     </row>
     <row r="7" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="44">
         <v>1</v>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="AD7" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE7" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="AT7" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AU7" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="AV7" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW7" s="7" t="s">
         <v>1</v>
@@ -2156,18 +2156,18 @@
     </row>
     <row r="8" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="44">
         <v>1</v>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AD8" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE8" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="AT8" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AU8" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="AV8" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW8" s="7" t="s">
         <v>1</v>
@@ -2294,18 +2294,18 @@
     </row>
     <row r="9" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="44">
         <v>1</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="AD9" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE9" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="AT9" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AU9" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="AV9" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW9" s="7" t="s">
         <v>1</v>
@@ -2432,18 +2432,18 @@
     </row>
     <row r="10" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="10">
         <v>1</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="44">
         <v>1</v>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="AD10" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE10" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="AT10" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AU10" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="AV10" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW10" s="7" t="s">
         <v>1</v>
@@ -2567,18 +2567,18 @@
     </row>
     <row r="11" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="44">
         <v>1</v>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="AD11" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE11" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="AT11" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AU11" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="AV11" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW11" s="7" t="s">
         <v>1</v>
@@ -2702,18 +2702,18 @@
     </row>
     <row r="12" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="44">
         <v>1</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="AD12" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE12" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="AT12" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AU12" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="AV12" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW12" s="7" t="s">
         <v>1</v>
@@ -2837,18 +2837,18 @@
     </row>
     <row r="13" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="44">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="AD13" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE13" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="AT13" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AU13" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="AV13" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW13" s="7" t="s">
         <v>1</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="AV14" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW14" s="7" t="s">
         <v>1</v>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="AV15" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW15" s="7" t="s">
         <v>1</v>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="AV16" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW16" s="7" t="s">
         <v>1</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="AV17" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW17" s="7" t="s">
         <v>1</v>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="AV18" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW18" s="7" t="s">
         <v>1</v>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="AV19" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW19" s="7" t="s">
         <v>1</v>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="AV20" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW20" s="7" t="s">
         <v>1</v>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="AV21" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW21" s="7" t="s">
         <v>1</v>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="AV22" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW22" s="7" t="s">
         <v>1</v>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="AV23" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW23" s="7" t="s">
         <v>1</v>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="AV24" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW24" s="7" t="s">
         <v>1</v>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="AV25" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW25" s="7" t="s">
         <v>1</v>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="AV26" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW26" s="7" t="s">
         <v>1</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="AV27" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW27" s="7" t="s">
         <v>1</v>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="AV28" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW28" s="7" t="s">
         <v>1</v>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="AV29" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW29" s="7" t="s">
         <v>1</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="AV30" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW30" s="7" t="s">
         <v>1</v>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="AV31" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW31" s="7" t="s">
         <v>1</v>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="AV32" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW32" s="7" t="s">
         <v>1</v>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="AV33" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW33" s="7" t="s">
         <v>1</v>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="AV34" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW34" s="7" t="s">
         <v>1</v>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="AV35" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW35" s="7" t="s">
         <v>1</v>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="AV36" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW36" s="7" t="s">
         <v>1</v>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AV37" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW37" s="7" t="s">
         <v>1</v>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="AV38" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW38" s="7" t="s">
         <v>1</v>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="AV39" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW39" s="7" t="s">
         <v>1</v>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="AV40" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW40" s="7" t="s">
         <v>1</v>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="AV41" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW41" s="7" t="s">
         <v>1</v>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="AV42" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW42" s="7" t="s">
         <v>1</v>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="AV43" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW43" s="7" t="s">
         <v>1</v>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="AV44" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW44" s="7" t="s">
         <v>1</v>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="AV45" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW45" s="7" t="s">
         <v>1</v>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="AV46" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW46" s="7" t="s">
         <v>1</v>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="AV47" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW47" s="7" t="s">
         <v>1</v>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="AV48" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW48" s="7" t="s">
         <v>1</v>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="AV49" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW49" s="7" t="s">
         <v>1</v>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="AV50" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW50" s="7" t="s">
         <v>1</v>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="AV51" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW51" s="7" t="s">
         <v>1</v>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="AV52" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW52" s="7" t="s">
         <v>1</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="AV53" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW53" s="7" t="s">
         <v>1</v>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="AV54" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW54" s="7" t="s">
         <v>1</v>
@@ -7794,7 +7794,7 @@
       </c>
       <c r="AV55" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW55" s="7" t="s">
         <v>1</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="AV56" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW56" s="7" t="s">
         <v>1</v>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="AV57" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW57" s="7" t="s">
         <v>1</v>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="AV58" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW58" s="7" t="s">
         <v>1</v>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="AV59" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW59" s="7" t="s">
         <v>1</v>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="AV60" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW60" s="7" t="s">
         <v>1</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="AV61" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW61" s="7" t="s">
         <v>1</v>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="AV62" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW62" s="7" t="s">
         <v>1</v>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="AV63" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW63" s="7" t="s">
         <v>1</v>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="AV64" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW64" s="7" t="s">
         <v>1</v>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="AV65" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW65" s="7" t="s">
         <v>1</v>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="AV66" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW66" s="7" t="s">
         <v>1</v>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="AV67" s="6" t="str">
         <f t="shared" ref="AV67:AV130" si="39">IF(A67&lt;&gt;"",CONCATENATE(IF(AV66&lt;&gt;"",CONCATENATE(AV66,","),""),AT67),AV66)</f>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW67" s="7" t="s">
         <v>1</v>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="AV68" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW68" s="7" t="s">
         <v>1</v>
@@ -9404,7 +9404,7 @@
       </c>
       <c r="AV69" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW69" s="7" t="s">
         <v>1</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="AV70" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW70" s="7" t="s">
         <v>1</v>
@@ -9634,7 +9634,7 @@
       </c>
       <c r="AV71" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW71" s="7" t="s">
         <v>1</v>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="AV72" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW72" s="7" t="s">
         <v>1</v>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="AV73" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW73" s="7" t="s">
         <v>1</v>
@@ -9979,7 +9979,7 @@
       </c>
       <c r="AV74" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW74" s="7" t="s">
         <v>1</v>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="AV75" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW75" s="7" t="s">
         <v>1</v>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="AV76" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW76" s="7" t="s">
         <v>1</v>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="AV77" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW77" s="7" t="s">
         <v>1</v>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="AV78" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW78" s="7" t="s">
         <v>1</v>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="AV79" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW79" s="7" t="s">
         <v>1</v>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="AV80" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW80" s="7" t="s">
         <v>1</v>
@@ -10784,7 +10784,7 @@
       </c>
       <c r="AV81" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW81" s="7" t="s">
         <v>1</v>
@@ -10899,7 +10899,7 @@
       </c>
       <c r="AV82" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW82" s="7" t="s">
         <v>1</v>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="AV83" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW83" s="7" t="s">
         <v>1</v>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="AV84" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW84" s="7" t="s">
         <v>1</v>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="AV85" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW85" s="7" t="s">
         <v>1</v>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="AV86" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW86" s="7" t="s">
         <v>1</v>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="AV87" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW87" s="7" t="s">
         <v>1</v>
@@ -11589,7 +11589,7 @@
       </c>
       <c r="AV88" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW88" s="7" t="s">
         <v>1</v>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="AV89" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW89" s="7" t="s">
         <v>1</v>
@@ -11819,7 +11819,7 @@
       </c>
       <c r="AV90" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW90" s="7" t="s">
         <v>1</v>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="AV91" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW91" s="7" t="s">
         <v>1</v>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="AV92" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW92" s="7" t="s">
         <v>1</v>
@@ -12164,7 +12164,7 @@
       </c>
       <c r="AV93" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW93" s="7" t="s">
         <v>1</v>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="AV94" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW94" s="7" t="s">
         <v>1</v>
@@ -12394,7 +12394,7 @@
       </c>
       <c r="AV95" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW95" s="7" t="s">
         <v>1</v>
@@ -12509,7 +12509,7 @@
       </c>
       <c r="AV96" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW96" s="7" t="s">
         <v>1</v>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="AV97" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW97" s="7" t="s">
         <v>1</v>
@@ -12739,7 +12739,7 @@
       </c>
       <c r="AV98" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW98" s="7" t="s">
         <v>1</v>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="AV99" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW99" s="7" t="s">
         <v>1</v>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="AV100" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW100" s="7" t="s">
         <v>1</v>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="AV101" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW101" s="7" t="s">
         <v>1</v>
@@ -13199,7 +13199,7 @@
       </c>
       <c r="AV102" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW102" s="7" t="s">
         <v>1</v>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="AV103" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW103" s="7" t="s">
         <v>1</v>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="AV104" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW104" s="7" t="s">
         <v>1</v>
@@ -13544,7 +13544,7 @@
       </c>
       <c r="AV105" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW105" s="7" t="s">
         <v>1</v>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="AV106" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW106" s="7" t="s">
         <v>1</v>
@@ -13774,7 +13774,7 @@
       </c>
       <c r="AV107" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW107" s="7" t="s">
         <v>1</v>
@@ -13889,7 +13889,7 @@
       </c>
       <c r="AV108" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW108" s="7" t="s">
         <v>1</v>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="AV109" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW109" s="7" t="s">
         <v>1</v>
@@ -14119,7 +14119,7 @@
       </c>
       <c r="AV110" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW110" s="7" t="s">
         <v>1</v>
@@ -14234,7 +14234,7 @@
       </c>
       <c r="AV111" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW111" s="7" t="s">
         <v>1</v>
@@ -14349,7 +14349,7 @@
       </c>
       <c r="AV112" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW112" s="7" t="s">
         <v>1</v>
@@ -14464,7 +14464,7 @@
       </c>
       <c r="AV113" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW113" s="7" t="s">
         <v>1</v>
@@ -14579,7 +14579,7 @@
       </c>
       <c r="AV114" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW114" s="7" t="s">
         <v>1</v>
@@ -14694,7 +14694,7 @@
       </c>
       <c r="AV115" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW115" s="7" t="s">
         <v>1</v>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="AV116" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW116" s="7" t="s">
         <v>1</v>
@@ -14924,7 +14924,7 @@
       </c>
       <c r="AV117" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW117" s="7" t="s">
         <v>1</v>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="AV118" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW118" s="7" t="s">
         <v>1</v>
@@ -15154,7 +15154,7 @@
       </c>
       <c r="AV119" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW119" s="7" t="s">
         <v>1</v>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="AV120" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW120" s="7" t="s">
         <v>1</v>
@@ -15384,7 +15384,7 @@
       </c>
       <c r="AV121" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW121" s="7" t="s">
         <v>1</v>
@@ -15499,7 +15499,7 @@
       </c>
       <c r="AV122" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW122" s="7" t="s">
         <v>1</v>
@@ -15614,7 +15614,7 @@
       </c>
       <c r="AV123" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW123" s="7" t="s">
         <v>1</v>
@@ -15729,7 +15729,7 @@
       </c>
       <c r="AV124" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW124" s="7" t="s">
         <v>1</v>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="AV125" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW125" s="7" t="s">
         <v>1</v>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="AV126" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW126" s="7" t="s">
         <v>1</v>
@@ -16074,7 +16074,7 @@
       </c>
       <c r="AV127" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW127" s="7" t="s">
         <v>1</v>
@@ -16189,7 +16189,7 @@
       </c>
       <c r="AV128" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW128" s="7" t="s">
         <v>1</v>
@@ -16304,7 +16304,7 @@
       </c>
       <c r="AV129" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW129" s="7" t="s">
         <v>1</v>
@@ -16419,7 +16419,7 @@
       </c>
       <c r="AV130" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW130" s="7" t="s">
         <v>1</v>
@@ -16534,7 +16534,7 @@
       </c>
       <c r="AV131" s="6" t="str">
         <f t="shared" ref="AV131:AV194" si="59">IF(A131&lt;&gt;"",CONCATENATE(IF(AV130&lt;&gt;"",CONCATENATE(AV130,","),""),AT131),AV130)</f>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW131" s="7" t="s">
         <v>1</v>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="AV132" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW132" s="7" t="s">
         <v>1</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="AV133" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW133" s="7" t="s">
         <v>1</v>
@@ -16879,7 +16879,7 @@
       </c>
       <c r="AV134" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW134" s="7" t="s">
         <v>1</v>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="AV135" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW135" s="7" t="s">
         <v>1</v>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="AV136" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW136" s="7" t="s">
         <v>1</v>
@@ -17224,7 +17224,7 @@
       </c>
       <c r="AV137" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW137" s="7" t="s">
         <v>1</v>
@@ -17339,7 +17339,7 @@
       </c>
       <c r="AV138" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW138" s="7" t="s">
         <v>1</v>
@@ -17454,7 +17454,7 @@
       </c>
       <c r="AV139" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW139" s="7" t="s">
         <v>1</v>
@@ -17569,7 +17569,7 @@
       </c>
       <c r="AV140" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW140" s="7" t="s">
         <v>1</v>
@@ -17684,7 +17684,7 @@
       </c>
       <c r="AV141" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW141" s="7" t="s">
         <v>1</v>
@@ -17799,7 +17799,7 @@
       </c>
       <c r="AV142" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW142" s="7" t="s">
         <v>1</v>
@@ -17914,7 +17914,7 @@
       </c>
       <c r="AV143" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW143" s="7" t="s">
         <v>1</v>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="AV144" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW144" s="7" t="s">
         <v>1</v>
@@ -18144,7 +18144,7 @@
       </c>
       <c r="AV145" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW145" s="7" t="s">
         <v>1</v>
@@ -18259,7 +18259,7 @@
       </c>
       <c r="AV146" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW146" s="7" t="s">
         <v>1</v>
@@ -18374,7 +18374,7 @@
       </c>
       <c r="AV147" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW147" s="7" t="s">
         <v>1</v>
@@ -18489,7 +18489,7 @@
       </c>
       <c r="AV148" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW148" s="7" t="s">
         <v>1</v>
@@ -18604,7 +18604,7 @@
       </c>
       <c r="AV149" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW149" s="7" t="s">
         <v>1</v>
@@ -18719,7 +18719,7 @@
       </c>
       <c r="AV150" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW150" s="7" t="s">
         <v>1</v>
@@ -18834,7 +18834,7 @@
       </c>
       <c r="AV151" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW151" s="7" t="s">
         <v>1</v>
@@ -18949,7 +18949,7 @@
       </c>
       <c r="AV152" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW152" s="7" t="s">
         <v>1</v>
@@ -19064,7 +19064,7 @@
       </c>
       <c r="AV153" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW153" s="7" t="s">
         <v>1</v>
@@ -19179,7 +19179,7 @@
       </c>
       <c r="AV154" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW154" s="7" t="s">
         <v>1</v>
@@ -19294,7 +19294,7 @@
       </c>
       <c r="AV155" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW155" s="7" t="s">
         <v>1</v>
@@ -19409,7 +19409,7 @@
       </c>
       <c r="AV156" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW156" s="7" t="s">
         <v>1</v>
@@ -19524,7 +19524,7 @@
       </c>
       <c r="AV157" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW157" s="7" t="s">
         <v>1</v>
@@ -19639,7 +19639,7 @@
       </c>
       <c r="AV158" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW158" s="7" t="s">
         <v>1</v>
@@ -19754,7 +19754,7 @@
       </c>
       <c r="AV159" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW159" s="7" t="s">
         <v>1</v>
@@ -19869,7 +19869,7 @@
       </c>
       <c r="AV160" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW160" s="7" t="s">
         <v>1</v>
@@ -19984,7 +19984,7 @@
       </c>
       <c r="AV161" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW161" s="7" t="s">
         <v>1</v>
@@ -20099,7 +20099,7 @@
       </c>
       <c r="AV162" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW162" s="7" t="s">
         <v>1</v>
@@ -20214,7 +20214,7 @@
       </c>
       <c r="AV163" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW163" s="7" t="s">
         <v>1</v>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="AV164" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW164" s="7" t="s">
         <v>1</v>
@@ -20444,7 +20444,7 @@
       </c>
       <c r="AV165" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW165" s="7" t="s">
         <v>1</v>
@@ -20559,7 +20559,7 @@
       </c>
       <c r="AV166" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW166" s="7" t="s">
         <v>1</v>
@@ -20674,7 +20674,7 @@
       </c>
       <c r="AV167" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW167" s="7" t="s">
         <v>1</v>
@@ -20789,7 +20789,7 @@
       </c>
       <c r="AV168" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW168" s="7" t="s">
         <v>1</v>
@@ -20904,7 +20904,7 @@
       </c>
       <c r="AV169" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW169" s="7" t="s">
         <v>1</v>
@@ -21019,7 +21019,7 @@
       </c>
       <c r="AV170" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW170" s="7" t="s">
         <v>1</v>
@@ -21134,7 +21134,7 @@
       </c>
       <c r="AV171" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW171" s="7" t="s">
         <v>1</v>
@@ -21249,7 +21249,7 @@
       </c>
       <c r="AV172" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW172" s="7" t="s">
         <v>1</v>
@@ -21364,7 +21364,7 @@
       </c>
       <c r="AV173" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW173" s="7" t="s">
         <v>1</v>
@@ -21479,7 +21479,7 @@
       </c>
       <c r="AV174" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW174" s="7" t="s">
         <v>1</v>
@@ -21594,7 +21594,7 @@
       </c>
       <c r="AV175" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW175" s="7" t="s">
         <v>1</v>
@@ -21709,7 +21709,7 @@
       </c>
       <c r="AV176" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW176" s="7" t="s">
         <v>1</v>
@@ -21824,7 +21824,7 @@
       </c>
       <c r="AV177" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW177" s="7" t="s">
         <v>1</v>
@@ -21939,7 +21939,7 @@
       </c>
       <c r="AV178" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW178" s="7" t="s">
         <v>1</v>
@@ -22054,7 +22054,7 @@
       </c>
       <c r="AV179" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW179" s="7" t="s">
         <v>1</v>
@@ -22169,7 +22169,7 @@
       </c>
       <c r="AV180" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW180" s="7" t="s">
         <v>1</v>
@@ -22284,7 +22284,7 @@
       </c>
       <c r="AV181" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW181" s="7" t="s">
         <v>1</v>
@@ -22399,7 +22399,7 @@
       </c>
       <c r="AV182" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW182" s="7" t="s">
         <v>1</v>
@@ -22514,7 +22514,7 @@
       </c>
       <c r="AV183" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW183" s="7" t="s">
         <v>1</v>
@@ -22629,7 +22629,7 @@
       </c>
       <c r="AV184" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW184" s="7" t="s">
         <v>1</v>
@@ -22744,7 +22744,7 @@
       </c>
       <c r="AV185" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW185" s="7" t="s">
         <v>1</v>
@@ -22859,7 +22859,7 @@
       </c>
       <c r="AV186" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW186" s="7" t="s">
         <v>1</v>
@@ -22974,7 +22974,7 @@
       </c>
       <c r="AV187" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW187" s="7" t="s">
         <v>1</v>
@@ -23089,7 +23089,7 @@
       </c>
       <c r="AV188" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW188" s="7" t="s">
         <v>1</v>
@@ -23204,7 +23204,7 @@
       </c>
       <c r="AV189" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW189" s="7" t="s">
         <v>1</v>
@@ -23319,7 +23319,7 @@
       </c>
       <c r="AV190" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW190" s="7" t="s">
         <v>1</v>
@@ -23434,7 +23434,7 @@
       </c>
       <c r="AV191" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW191" s="7" t="s">
         <v>1</v>
@@ -23549,7 +23549,7 @@
       </c>
       <c r="AV192" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW192" s="7" t="s">
         <v>1</v>
@@ -23664,7 +23664,7 @@
       </c>
       <c r="AV193" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW193" s="7" t="s">
         <v>1</v>
@@ -23779,7 +23779,7 @@
       </c>
       <c r="AV194" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW194" s="7" t="s">
         <v>1</v>
@@ -23894,7 +23894,7 @@
       </c>
       <c r="AV195" s="6" t="str">
         <f t="shared" ref="AV195:AV201" si="79">IF(A195&lt;&gt;"",CONCATENATE(IF(AV194&lt;&gt;"",CONCATENATE(AV194,","),""),AT195),AV194)</f>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW195" s="7" t="s">
         <v>1</v>
@@ -24009,7 +24009,7 @@
       </c>
       <c r="AV196" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW196" s="7" t="s">
         <v>1</v>
@@ -24124,7 +24124,7 @@
       </c>
       <c r="AV197" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW197" s="7" t="s">
         <v>1</v>
@@ -24239,7 +24239,7 @@
       </c>
       <c r="AV198" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW198" s="7" t="s">
         <v>1</v>
@@ -24354,7 +24354,7 @@
       </c>
       <c r="AV199" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW199" s="7" t="s">
         <v>1</v>
@@ -24469,7 +24469,7 @@
       </c>
       <c r="AV200" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW200" s="7" t="s">
         <v>1</v>
@@ -24584,7 +24584,7 @@
       </c>
       <c r="AV201" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
+        <v>{"id": "Hinge", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "position": [0,0,-50], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Clip", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Clip", "unit": 1}], "position": [0,40,40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "position": [0,-30,-60], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "position": [0,50,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "position": [-20,20,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "position": [-50,10,10], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "position": [30,0,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "position": [-40,10,-30], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "position": [0,10,-40], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.Wing", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Wing", "unit": 1}], "position": [0,0,0], "placementRelTo": "Hinge", "parentObject": "Hinge"},{"id": "Hinge.WingScrew", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#WingScrew", "unit": 1}], "position": [0,-10,-10], "placementRelTo": "Hinge", "parentObject": "Hinge"}</v>
       </c>
       <c r="AW201" s="7" t="s">
         <v>1</v>
